--- a/Genomic Selection_SALVA/results/RR_SNP&G_BLUP_rust_traits.xlsx
+++ b/Genomic Selection_SALVA/results/RR_SNP&G_BLUP_rust_traits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salva\Documents\GitHub\Genomic-Selection\Genomic Selection_SALVA\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76913D5A-1B9E-44EC-A3D1-256A6067F253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA1840F-B3CB-4490-B843-4F044DA4F237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8163" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8323" uniqueCount="14">
   <si>
     <t>Trait</t>
   </si>
@@ -60,13 +60,16 @@
   <si>
     <t>G-BLUP</t>
   </si>
+  <si>
+    <t>SNP-BLUP_10k</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -113,8 +116,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,16 +414,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4081"/>
+  <dimension ref="A1:C4161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4136" workbookViewId="0">
+      <selection activeCell="E4157" sqref="E4157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -45320,6 +45323,886 @@
         <v>0.52937917835695103</v>
       </c>
     </row>
+    <row r="4082" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4082" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4082" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4082">
+        <v>0.42292902887810202</v>
+      </c>
+    </row>
+    <row r="4083" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4083" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4083" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4083">
+        <v>0.49802944306279801</v>
+      </c>
+    </row>
+    <row r="4084" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4084" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4084" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4084">
+        <v>-7.4199783691184198E-2</v>
+      </c>
+    </row>
+    <row r="4085" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4085" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4085" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4085">
+        <v>0.49083329708177398</v>
+      </c>
+    </row>
+    <row r="4086" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4086" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4086" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4086">
+        <v>0.30232336816223099</v>
+      </c>
+    </row>
+    <row r="4087" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4087" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4087" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4087">
+        <v>6.9126031925651102E-2</v>
+      </c>
+    </row>
+    <row r="4088" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4088" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4088" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4088">
+        <v>0.51205369711764104</v>
+      </c>
+    </row>
+    <row r="4089" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4089" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4089" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4089">
+        <v>0.47635340977885599</v>
+      </c>
+    </row>
+    <row r="4090" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4090" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4090" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4090">
+        <v>-2.5537341889468601E-4</v>
+      </c>
+    </row>
+    <row r="4091" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4091" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4091" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4091">
+        <v>0.31570989302786601</v>
+      </c>
+    </row>
+    <row r="4092" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4092" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4092" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4092" s="2">
+        <v>0.68066249499999998</v>
+      </c>
+    </row>
+    <row r="4093" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4093" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4093" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4093" s="2">
+        <v>0.54734888000000004</v>
+      </c>
+    </row>
+    <row r="4094" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4094" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4094" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4094" s="2">
+        <v>0.188180979</v>
+      </c>
+    </row>
+    <row r="4095" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4095" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4095" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4095" s="2">
+        <v>0.29951077500000001</v>
+      </c>
+    </row>
+    <row r="4096" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4096" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4096" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4096" s="2">
+        <v>0.69915290900000004</v>
+      </c>
+    </row>
+    <row r="4097" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4097" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4097" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4097" s="2">
+        <v>0.70049853699999998</v>
+      </c>
+    </row>
+    <row r="4098" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4098" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4098" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4098" s="2">
+        <v>0.65184487700000004</v>
+      </c>
+    </row>
+    <row r="4099" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4099" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4099" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4099" s="2">
+        <v>0.72334596399999995</v>
+      </c>
+    </row>
+    <row r="4100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4100" s="2">
+        <v>0.67179162000000003</v>
+      </c>
+    </row>
+    <row r="4101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4101" s="2">
+        <v>0.68927578700000003</v>
+      </c>
+    </row>
+    <row r="4102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4102" s="2">
+        <v>0.28426901900000001</v>
+      </c>
+    </row>
+    <row r="4103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4103" s="2">
+        <v>3.0118544000000001E-2</v>
+      </c>
+    </row>
+    <row r="4104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4104" s="2">
+        <v>0.295232314</v>
+      </c>
+    </row>
+    <row r="4105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4105" s="2">
+        <v>-2.9652165000000001E-2</v>
+      </c>
+    </row>
+    <row r="4106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4106" s="2">
+        <v>9.7314622000000003E-2</v>
+      </c>
+    </row>
+    <row r="4107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4107" s="2">
+        <v>0.27417338299999999</v>
+      </c>
+    </row>
+    <row r="4108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4108" s="2">
+        <v>0.44466346400000001</v>
+      </c>
+    </row>
+    <row r="4109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4109" s="2">
+        <v>0.32086558700000001</v>
+      </c>
+    </row>
+    <row r="4110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4110" s="2">
+        <v>1.6807506E-2</v>
+      </c>
+    </row>
+    <row r="4111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4111" s="2">
+        <v>0.43196606900000001</v>
+      </c>
+    </row>
+    <row r="4112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4112" s="2">
+        <v>0.416196548</v>
+      </c>
+    </row>
+    <row r="4113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4113" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4113" s="2">
+        <v>0.54276534899999995</v>
+      </c>
+    </row>
+    <row r="4114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4114" s="2">
+        <v>0.58789676700000004</v>
+      </c>
+    </row>
+    <row r="4115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4115" s="2">
+        <v>0.22002175099999999</v>
+      </c>
+    </row>
+    <row r="4116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4116" s="2">
+        <v>0.61684243800000005</v>
+      </c>
+    </row>
+    <row r="4117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4117" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4117" s="2">
+        <v>0.84875253399999995</v>
+      </c>
+    </row>
+    <row r="4118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4118" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4118" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4118" s="2">
+        <v>0.63037539300000001</v>
+      </c>
+    </row>
+    <row r="4119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4119" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4119" s="2">
+        <v>0.62574686499999999</v>
+      </c>
+    </row>
+    <row r="4120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4120" s="2">
+        <v>0.75228588200000002</v>
+      </c>
+    </row>
+    <row r="4121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4121" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4121" s="2">
+        <v>0.55842747699999995</v>
+      </c>
+    </row>
+    <row r="4122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4122" s="2">
+        <v>0.23469989199999999</v>
+      </c>
+    </row>
+    <row r="4123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4123" s="2">
+        <v>0.27060354399999997</v>
+      </c>
+    </row>
+    <row r="4124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4124" s="2">
+        <v>0.293075007</v>
+      </c>
+    </row>
+    <row r="4125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4125" s="2">
+        <v>-0.26420158399999999</v>
+      </c>
+    </row>
+    <row r="4126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4126" s="2">
+        <v>9.9094177000000006E-2</v>
+      </c>
+    </row>
+    <row r="4127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4127" s="2">
+        <v>0.22041059499999999</v>
+      </c>
+    </row>
+    <row r="4128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4128" s="2">
+        <v>0.120905628</v>
+      </c>
+    </row>
+    <row r="4129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4129" s="2">
+        <v>0.289566826</v>
+      </c>
+    </row>
+    <row r="4130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4130" s="2">
+        <v>0.280676814</v>
+      </c>
+    </row>
+    <row r="4131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4131" s="2">
+        <v>0.34910055800000001</v>
+      </c>
+    </row>
+    <row r="4132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4132" s="2">
+        <v>0.42115485699999999</v>
+      </c>
+    </row>
+    <row r="4133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4133" s="2">
+        <v>0.44793870000000002</v>
+      </c>
+    </row>
+    <row r="4134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4134" s="2">
+        <v>0.55434868800000003</v>
+      </c>
+    </row>
+    <row r="4135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4135" s="2">
+        <v>0.29061319099999999</v>
+      </c>
+    </row>
+    <row r="4136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4136" s="2">
+        <v>0.52493838800000003</v>
+      </c>
+    </row>
+    <row r="4137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4137" s="2">
+        <v>0.83391383900000005</v>
+      </c>
+    </row>
+    <row r="4138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4138" s="2">
+        <v>0.557662345</v>
+      </c>
+    </row>
+    <row r="4139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4139" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4139" s="2">
+        <v>0.66109319799999999</v>
+      </c>
+    </row>
+    <row r="4140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4140" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4140" s="2">
+        <v>0.74080021200000001</v>
+      </c>
+    </row>
+    <row r="4141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4141" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4141" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4141" s="2">
+        <v>0.47338215700000003</v>
+      </c>
+    </row>
+    <row r="4142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4142" s="2">
+        <v>0.175539261</v>
+      </c>
+    </row>
+    <row r="4143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4143" s="2">
+        <v>0.47582922700000002</v>
+      </c>
+    </row>
+    <row r="4144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4144" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4144" s="2">
+        <v>0.69908139899999999</v>
+      </c>
+    </row>
+    <row r="4145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4145" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4145" s="2">
+        <v>0.56741056000000001</v>
+      </c>
+    </row>
+    <row r="4146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4146" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4146" s="2">
+        <v>0.54704589100000001</v>
+      </c>
+    </row>
+    <row r="4147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4147" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4147" s="2">
+        <v>0.904045816</v>
+      </c>
+    </row>
+    <row r="4148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4148" s="2">
+        <v>0.72774718699999996</v>
+      </c>
+    </row>
+    <row r="4149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4149" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4149" s="2">
+        <v>0.62637974200000002</v>
+      </c>
+    </row>
+    <row r="4150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4150" s="2">
+        <v>0.219808475</v>
+      </c>
+    </row>
+    <row r="4151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4151" s="2">
+        <v>0.26616056399999999</v>
+      </c>
+    </row>
+    <row r="4152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4152" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4152" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4152" s="2">
+        <v>0.47442961299999997</v>
+      </c>
+    </row>
+    <row r="4153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4153" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4153" s="2">
+        <v>0.52142232300000002</v>
+      </c>
+    </row>
+    <row r="4154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4154" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4154" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4154" s="2">
+        <v>0.58145733899999996</v>
+      </c>
+    </row>
+    <row r="4155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4155" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4155" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4155" s="2">
+        <v>0.25252352300000003</v>
+      </c>
+    </row>
+    <row r="4156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4156" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4156" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4156" s="2">
+        <v>0.62150396900000004</v>
+      </c>
+    </row>
+    <row r="4157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4157" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4157" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4157" s="2">
+        <v>0.83811473000000003</v>
+      </c>
+    </row>
+    <row r="4158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4158" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4158" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4158" s="2">
+        <v>0.60463772400000004</v>
+      </c>
+    </row>
+    <row r="4159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4159" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4159" s="2">
+        <v>0.63612992099999999</v>
+      </c>
+    </row>
+    <row r="4160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4160" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4160" s="2">
+        <v>0.74060156099999996</v>
+      </c>
+    </row>
+    <row r="4161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4161" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4161" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4161" s="2">
+        <v>0.53057516500000002</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
